--- a/Documentacao/EspecificacaoClasse/Especificação de Classe- Cliente.xlsx
+++ b/Documentacao/EspecificacaoClasse/Especificação de Classe- Cliente.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fivestars\Documentacao\EspecificacaoClasse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F62149-87CE-4D5A-A563-2F2D5405DC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BAFE30-BE47-4ED1-9769-F941B7D5FA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ESPECIFICAÇÃO DE CLASSE</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Formato</t>
   </si>
   <si>
-    <t>Id_Cliente</t>
-  </si>
-  <si>
     <t>Identificador do cliente</t>
   </si>
   <si>
@@ -109,19 +106,23 @@
 aceitar números</t>
   </si>
   <si>
-    <t>ComprasRealizadas</t>
-  </si>
-  <si>
-    <t>Compras realizadas pelo cliente</t>
-  </si>
-  <si>
-    <t>PontoReferencia</t>
-  </si>
-  <si>
     <t>Ponto de Referencia do cliente</t>
   </si>
   <si>
     <t>Varchar</t>
+  </si>
+  <si>
+    <t>Este campo não
+possui restrições</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>id_Cliente</t>
+  </si>
+  <si>
+    <t>pontoReferencia</t>
   </si>
   <si>
     <r>
@@ -141,12 +142,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Recebe dados da Classe Usuario</t>
+      <t>Recebe dados da classe Usuario</t>
     </r>
-  </si>
-  <si>
-    <t>Este campo não
-possui restrições</t>
   </si>
 </sst>
 </file>
@@ -280,16 +277,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -299,11 +293,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -312,12 +312,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I998"/>
+  <dimension ref="B1:I965"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A13" sqref="A13:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -553,7 +547,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9"/>
@@ -563,7 +557,7 @@
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="9"/>
@@ -573,7 +567,7 @@
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="9"/>
@@ -583,7 +577,7 @@
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="9"/>
@@ -593,7 +587,7 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="9"/>
@@ -609,7 +603,7 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="9"/>
@@ -620,77 +614,65 @@
       <c r="B7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="4">
+        <v>6</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="5">
-        <v>6</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="4">
+        <v>999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5">
-        <v>999999</v>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4">
+        <v>30</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5">
-        <v>6</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="5">
-        <v>999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="5">
-        <v>30</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1638,39 +1620,6 @@
     <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="F6:I6"/>
